--- a/results/final.xlsx
+++ b/results/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602DEBA-E5D1-488A-9684-5805E8531D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86386DA-EEB2-48C7-A674-1147CF9FECB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2800" windowWidth="22050" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="1940" windowWidth="22050" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="330">
   <si>
     <t>Country</t>
   </si>
@@ -1076,7 +1076,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1084,20 +1084,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -29376,10 +29362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29587,801 +29573,751 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="C5">
-        <v>-0.20401301335897321</v>
+        <v>-0.17126556456124931</v>
       </c>
       <c r="D5">
-        <v>8.9930453409092503E-3</v>
+        <v>-0.15494445909462121</v>
       </c>
       <c r="E5">
-        <v>-6.7703777562662298E-2</v>
+        <v>-0.10682657174495749</v>
       </c>
       <c r="F5">
-        <v>-0.43105565509996641</v>
+        <v>-0.37089526558949182</v>
       </c>
       <c r="G5">
-        <v>-0.29049218849316938</v>
+        <v>-0.29665615174417792</v>
       </c>
       <c r="H5">
-        <v>-0.2047922107707715</v>
+        <v>-0.23959305943042361</v>
       </c>
       <c r="I5">
-        <v>8.1309522868375506E-3</v>
+        <v>-0.16257558001199091</v>
       </c>
       <c r="J5">
-        <v>-0.14230229850009671</v>
+        <v>0.19831451881923731</v>
       </c>
       <c r="K5">
-        <v>-6.8694812658846929E-2</v>
+        <v>0.2467288191735876</v>
       </c>
       <c r="L5">
-        <v>0.43136459561985818</v>
+        <v>0.21040449707296949</v>
       </c>
       <c r="M5">
-        <v>-6.3446535741530863E-2</v>
+        <v>-0.1065590622221497</v>
       </c>
       <c r="N5">
-        <v>8.8507903860438011E-2</v>
+        <v>0.37179229860389412</v>
       </c>
       <c r="O5">
-        <v>-7.5426523510087762E-3</v>
+        <v>0.32473783696511499</v>
       </c>
       <c r="P5">
-        <v>6.7819494849153616E-2</v>
+        <v>0.22699177087325129</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>-0.17126556456124931</v>
+        <v>-6.6140908502421977E-2</v>
       </c>
       <c r="D6">
-        <v>-0.15494445909462121</v>
+        <v>-0.1940531810148621</v>
       </c>
       <c r="E6">
-        <v>-0.10682657174495749</v>
+        <v>-0.2434703371161773</v>
       </c>
       <c r="F6">
-        <v>-0.37089526558949182</v>
+        <v>-0.16537977147220259</v>
       </c>
       <c r="G6">
-        <v>-0.29665615174417792</v>
+        <v>-0.31482121045364581</v>
       </c>
       <c r="H6">
-        <v>-0.23959305943042361</v>
+        <v>-0.37266110875394909</v>
       </c>
       <c r="I6">
-        <v>-0.16257558001199091</v>
+        <v>-0.1942009607737894</v>
       </c>
       <c r="J6">
-        <v>0.19831451881923731</v>
+        <v>0.33419675951437428</v>
       </c>
       <c r="K6">
-        <v>0.2467288191735876</v>
+        <v>0.22921916640770129</v>
       </c>
       <c r="L6">
-        <v>0.21040449707296949</v>
+        <v>-5.2949876738006461E-2</v>
       </c>
       <c r="M6">
-        <v>-0.1065590622221497</v>
+        <v>-0.2469941813404489</v>
       </c>
       <c r="N6">
-        <v>0.37179229860389412</v>
+        <v>0.43703714212220562</v>
       </c>
       <c r="O6">
-        <v>0.32473783696511499</v>
+        <v>0.47111732064777612</v>
       </c>
       <c r="P6">
-        <v>0.22699177087325129</v>
+        <v>0.35825368008518382</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C7">
-        <v>-6.6140908502421977E-2</v>
+        <v>7.1144543736490998E-2</v>
       </c>
       <c r="D7">
-        <v>-0.1940531810148621</v>
+        <v>-0.17419467274755271</v>
       </c>
       <c r="E7">
-        <v>-0.2434703371161773</v>
+        <v>-0.2767448095507008</v>
       </c>
       <c r="F7">
-        <v>-0.16537977147220259</v>
+        <v>-0.39089333996136438</v>
       </c>
       <c r="G7">
-        <v>-0.31482121045364581</v>
+        <v>-0.41810059602171112</v>
       </c>
       <c r="H7">
-        <v>-0.37266110875394909</v>
+        <v>-0.3604761739853547</v>
       </c>
       <c r="I7">
-        <v>-0.1942009607737894</v>
+        <v>-0.17450471072812179</v>
       </c>
       <c r="J7">
-        <v>0.33419675951437428</v>
+        <v>0.1350317332863267</v>
       </c>
       <c r="K7">
-        <v>0.22921916640770129</v>
+        <v>0.31570842271043181</v>
       </c>
       <c r="L7">
-        <v>-5.2949876738006461E-2</v>
+        <v>7.0779473651265745E-2</v>
       </c>
       <c r="M7">
-        <v>-0.2469941813404489</v>
+        <v>-0.28413958704012521</v>
       </c>
       <c r="N7">
-        <v>0.43703714212220562</v>
+        <v>0.11156267931727019</v>
       </c>
       <c r="O7">
-        <v>0.47111732064777612</v>
+        <v>6.035124614570038E-2</v>
       </c>
       <c r="P7">
-        <v>0.35825368008518382</v>
+        <v>-4.1476297188197377E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C8">
-        <v>7.1144543736490998E-2</v>
+        <v>-0.23623531324249231</v>
       </c>
       <c r="D8">
-        <v>-0.17419467274755271</v>
+        <v>0.19043371576913939</v>
       </c>
       <c r="E8">
-        <v>-0.2767448095507008</v>
+        <v>8.1334216707217188E-2</v>
       </c>
       <c r="F8">
-        <v>-0.39089333996136438</v>
+        <v>-0.1696458217333485</v>
       </c>
       <c r="G8">
-        <v>-0.41810059602171112</v>
+        <v>-0.30086603857931249</v>
       </c>
       <c r="H8">
-        <v>-0.3604761739853547</v>
+        <v>-0.32756386327608228</v>
       </c>
       <c r="I8">
-        <v>-0.17450471072812179</v>
+        <v>0.18860013218159291</v>
       </c>
       <c r="J8">
-        <v>0.1350317332863267</v>
+        <v>-9.6022968658973709E-2</v>
       </c>
       <c r="K8">
-        <v>0.31570842271043181</v>
+        <v>-0.15647937384352309</v>
       </c>
       <c r="L8">
-        <v>7.0779473651265745E-2</v>
+        <v>7.7750137606427239E-2</v>
       </c>
       <c r="M8">
-        <v>-0.28413958704012521</v>
+        <v>6.5883209649083257E-2</v>
       </c>
       <c r="N8">
-        <v>0.11156267931727019</v>
+        <v>-3.2064185702560297E-2</v>
       </c>
       <c r="O8">
-        <v>6.035124614570038E-2</v>
+        <v>-0.1016465867499967</v>
       </c>
       <c r="P8">
-        <v>-4.1476297188197377E-2</v>
+        <v>0.1085805477288949</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C9">
-        <v>-0.23623531324249231</v>
+        <v>-0.31633927453812088</v>
       </c>
       <c r="D9">
-        <v>0.19043371576913939</v>
+        <v>-0.1404137395182691</v>
       </c>
       <c r="E9">
-        <v>8.1334216707217188E-2</v>
+        <v>-0.29511972061022967</v>
       </c>
       <c r="F9">
-        <v>-0.1696458217333485</v>
+        <v>-0.29691861796744518</v>
       </c>
       <c r="G9">
-        <v>-0.30086603857931249</v>
+        <v>-0.41427114567539269</v>
       </c>
       <c r="H9">
-        <v>-0.32756386327608228</v>
+        <v>-0.36316269488907138</v>
       </c>
       <c r="I9">
-        <v>0.18860013218159291</v>
+        <v>-0.13706308460244471</v>
       </c>
       <c r="J9">
-        <v>-9.6022968658973709E-2</v>
+        <v>-1.2071896048952049E-2</v>
       </c>
       <c r="K9">
-        <v>-0.15647937384352309</v>
+        <v>-8.3399544699135159E-2</v>
       </c>
       <c r="L9">
-        <v>7.7750137606427239E-2</v>
+        <v>0.20558619558708641</v>
       </c>
       <c r="M9">
-        <v>6.5883209649083257E-2</v>
+        <v>-0.30246390774587961</v>
       </c>
       <c r="N9">
-        <v>-3.2064185702560297E-2</v>
+        <v>3.898315898646984E-2</v>
       </c>
       <c r="O9">
-        <v>-0.1016465867499967</v>
+        <v>-8.3133694362519342E-2</v>
       </c>
       <c r="P9">
-        <v>0.1085805477288949</v>
+        <v>0.1164691717171511</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C10">
-        <v>-0.31633927453812088</v>
+        <v>-0.31533945528985757</v>
       </c>
       <c r="D10">
-        <v>-0.1404137395182691</v>
+        <v>-0.123092822835059</v>
       </c>
       <c r="E10">
-        <v>-0.29511972061022967</v>
+        <v>-0.27869193299180212</v>
       </c>
       <c r="F10">
-        <v>-0.29691861796744518</v>
+        <v>-0.2879126456744589</v>
       </c>
       <c r="G10">
-        <v>-0.41427114567539269</v>
+        <v>-0.41952874908192062</v>
       </c>
       <c r="H10">
-        <v>-0.36316269488907138</v>
+        <v>-0.37360029950930718</v>
       </c>
       <c r="I10">
-        <v>-0.13706308460244471</v>
+        <v>-0.12021365254461561</v>
       </c>
       <c r="J10">
-        <v>-1.2071896048952049E-2</v>
+        <v>1.3553389008521511E-2</v>
       </c>
       <c r="K10">
-        <v>-8.3399544699135159E-2</v>
+        <v>-6.5446783127313363E-2</v>
       </c>
       <c r="L10">
-        <v>0.20558619558708641</v>
+        <v>0.19692211371842011</v>
       </c>
       <c r="M10">
-        <v>-0.30246390774587961</v>
+        <v>-0.28694105511512941</v>
       </c>
       <c r="N10">
-        <v>3.898315898646984E-2</v>
+        <v>6.4613998942492049E-2</v>
       </c>
       <c r="O10">
-        <v>-8.3133694362519342E-2</v>
+        <v>-5.1148110609562522E-2</v>
       </c>
       <c r="P10">
-        <v>0.1164691717171511</v>
+        <v>0.1415623390384845</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C11">
-        <v>-0.31533945528985757</v>
+        <v>-0.39049551288479201</v>
       </c>
       <c r="D11">
-        <v>-0.123092822835059</v>
+        <v>0.1147085772611052</v>
       </c>
       <c r="E11">
-        <v>-0.27869193299180212</v>
+        <v>-0.12126228318418519</v>
       </c>
       <c r="F11">
-        <v>-0.2879126456744589</v>
+        <v>-0.36445755055500251</v>
       </c>
       <c r="G11">
-        <v>-0.41952874908192062</v>
+        <v>-0.42406610850081999</v>
       </c>
       <c r="H11">
-        <v>-0.37360029950930718</v>
+        <v>-0.35757590298499642</v>
       </c>
       <c r="I11">
-        <v>-0.12021365254461561</v>
+        <v>0.1191950480752049</v>
       </c>
       <c r="J11">
-        <v>1.3553389008521511E-2</v>
+        <v>-0.18105983061958639</v>
       </c>
       <c r="K11">
-        <v>-6.5446783127313363E-2</v>
+        <v>-0.23988329364315181</v>
       </c>
       <c r="L11">
-        <v>0.19692211371842011</v>
+        <v>2.4528692637137521E-2</v>
       </c>
       <c r="M11">
-        <v>-0.28694105511512941</v>
+        <v>-0.11092191131826939</v>
       </c>
       <c r="N11">
-        <v>6.4613998942492049E-2</v>
+        <v>-0.13779969907880499</v>
       </c>
       <c r="O11">
-        <v>-5.1148110609562522E-2</v>
+        <v>-0.15518142446088209</v>
       </c>
       <c r="P11">
-        <v>0.1415623390384845</v>
+        <v>-5.1940971739412589E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C12">
-        <v>-0.39049551288479201</v>
+        <v>-0.33218090044455822</v>
       </c>
       <c r="D12">
-        <v>0.1147085772611052</v>
+        <v>-0.16470603478749871</v>
       </c>
       <c r="E12">
-        <v>-0.12126228318418519</v>
+        <v>-0.30519444939487972</v>
       </c>
       <c r="F12">
-        <v>-0.36445755055500251</v>
+        <v>-0.28487785081206413</v>
       </c>
       <c r="G12">
-        <v>-0.42406610850081999</v>
+        <v>-0.3210354137688336</v>
       </c>
       <c r="H12">
-        <v>-0.35757590298499642</v>
+        <v>-0.24212100568786341</v>
       </c>
       <c r="I12">
-        <v>0.1191950480752049</v>
+        <v>-0.1611716332082013</v>
       </c>
       <c r="J12">
-        <v>-0.18105983061958639</v>
+        <v>1.486432140427529E-2</v>
       </c>
       <c r="K12">
-        <v>-0.23988329364315181</v>
+        <v>-0.1157235902209891</v>
       </c>
       <c r="L12">
-        <v>2.4528692637137521E-2</v>
+        <v>0.15027036911553679</v>
       </c>
       <c r="M12">
-        <v>-0.11092191131826939</v>
+        <v>-0.31147916597212671</v>
       </c>
       <c r="N12">
-        <v>-0.13779969907880499</v>
+        <v>9.2047532476253347E-3</v>
       </c>
       <c r="O12">
-        <v>-0.15518142446088209</v>
+        <v>-0.1023499255844018</v>
       </c>
       <c r="P12">
-        <v>-5.1940971739412589E-2</v>
+        <v>9.7540585978578495E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C13">
-        <v>-0.33218090044455822</v>
+        <v>-0.31726126106781022</v>
       </c>
       <c r="D13">
-        <v>-0.16470603478749871</v>
+        <v>-0.13745322160973031</v>
       </c>
       <c r="E13">
-        <v>-0.30519444939487972</v>
+        <v>-0.29196337622116941</v>
       </c>
       <c r="F13">
-        <v>-0.28487785081206413</v>
+        <v>-0.29520373639291397</v>
       </c>
       <c r="G13">
-        <v>-0.3210354137688336</v>
+        <v>-0.4131914795341447</v>
       </c>
       <c r="H13">
-        <v>-0.24212100568786341</v>
+        <v>-0.36251749250887572</v>
       </c>
       <c r="I13">
-        <v>-0.1611716332082013</v>
+        <v>-0.13413893678875211</v>
       </c>
       <c r="J13">
-        <v>1.486432140427529E-2</v>
+        <v>-1.3655195440874681E-2</v>
       </c>
       <c r="K13">
-        <v>-0.1157235902209891</v>
+        <v>-8.5697761054969859E-2</v>
       </c>
       <c r="L13">
-        <v>0.15027036911553679</v>
+        <v>0.20538848670932239</v>
       </c>
       <c r="M13">
-        <v>-0.31147916597212671</v>
+        <v>-0.29937501801661748</v>
       </c>
       <c r="N13">
-        <v>9.2047532476253347E-3</v>
+        <v>3.8529664332379858E-2</v>
       </c>
       <c r="O13">
-        <v>-0.1023499255844018</v>
+        <v>-8.3194482562463992E-2</v>
       </c>
       <c r="P13">
-        <v>9.7540585978578495E-2</v>
+        <v>0.11715035718224159</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C14">
-        <v>-0.31726126106781022</v>
+        <v>-0.26194369976367998</v>
       </c>
       <c r="D14">
-        <v>-0.13745322160973031</v>
+        <v>-0.18712844605691531</v>
       </c>
       <c r="E14">
-        <v>-0.29196337622116941</v>
+        <v>-0.29480085435284142</v>
       </c>
       <c r="F14">
-        <v>-0.29520373639291397</v>
+        <v>-0.23788716410125099</v>
       </c>
       <c r="G14">
-        <v>-0.4131914795341447</v>
+        <v>-0.29712492297864379</v>
       </c>
       <c r="H14">
-        <v>-0.36251749250887572</v>
+        <v>-0.32452039119708759</v>
       </c>
       <c r="I14">
-        <v>-0.13413893678875211</v>
+        <v>-0.18297833476668809</v>
       </c>
       <c r="J14">
-        <v>-1.3655195440874681E-2</v>
+        <v>0.1035934387847086</v>
       </c>
       <c r="K14">
-        <v>-8.5697761054969859E-2</v>
+        <v>3.2869353482247968E-2</v>
       </c>
       <c r="L14">
-        <v>0.20538848670932239</v>
+        <v>0.1403633733199266</v>
       </c>
       <c r="M14">
-        <v>-0.29937501801661748</v>
+        <v>-0.30024649421284838</v>
       </c>
       <c r="N14">
-        <v>3.8529664332379858E-2</v>
+        <v>7.6405571054182678E-2</v>
       </c>
       <c r="O14">
-        <v>-8.3194482562463992E-2</v>
+        <v>-0.1027390141532087</v>
       </c>
       <c r="P14">
-        <v>0.11715035718224159</v>
+        <v>0.118108852814649</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C15">
-        <v>-0.26194369976367998</v>
+        <v>-0.31863910394613187</v>
       </c>
       <c r="D15">
-        <v>-0.18712844605691531</v>
+        <v>-0.1412507878045216</v>
       </c>
       <c r="E15">
-        <v>-0.29480085435284142</v>
+        <v>-0.29490887033771979</v>
       </c>
       <c r="F15">
-        <v>-0.23788716410125099</v>
+        <v>-0.29469703762856819</v>
       </c>
       <c r="G15">
-        <v>-0.29712492297864379</v>
+        <v>-0.4088399330918952</v>
       </c>
       <c r="H15">
-        <v>-0.32452039119708759</v>
+        <v>-0.35882316414534798</v>
       </c>
       <c r="I15">
-        <v>-0.18297833476668809</v>
+        <v>-0.13784876405695029</v>
       </c>
       <c r="J15">
-        <v>0.1035934387847086</v>
+        <v>-1.317537191871198E-2</v>
       </c>
       <c r="K15">
-        <v>3.2869353482247968E-2</v>
+        <v>-8.6276900331672318E-2</v>
       </c>
       <c r="L15">
-        <v>0.1403633733199266</v>
+        <v>0.2044151828731495</v>
       </c>
       <c r="M15">
-        <v>-0.30024649421284838</v>
+        <v>-0.30211266819699478</v>
       </c>
       <c r="N15">
-        <v>7.6405571054182678E-2</v>
+        <v>3.8304819169330317E-2</v>
       </c>
       <c r="O15">
-        <v>-0.1027390141532087</v>
+        <v>-8.3603247309678649E-2</v>
       </c>
       <c r="P15">
-        <v>0.118108852814649</v>
+        <v>0.1165073445726505</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C16">
-        <v>-0.31863910394613187</v>
+        <v>-0.1075451779868223</v>
       </c>
       <c r="D16">
-        <v>-0.1412507878045216</v>
+        <v>0.1118193934794276</v>
       </c>
       <c r="E16">
-        <v>-0.29490887033771979</v>
+        <v>0.13409304533347691</v>
       </c>
       <c r="F16">
-        <v>-0.29469703762856819</v>
+        <v>0.13458336259666859</v>
       </c>
       <c r="G16">
-        <v>-0.4088399330918952</v>
+        <v>0.35991565410081511</v>
       </c>
       <c r="H16">
-        <v>-0.35882316414534798</v>
+        <v>0.33393519497591539</v>
       </c>
       <c r="I16">
-        <v>-0.13784876405695029</v>
+        <v>0.1175403627488429</v>
       </c>
       <c r="J16">
-        <v>-1.317537191871198E-2</v>
+        <v>2.4009341463236241E-2</v>
       </c>
       <c r="K16">
-        <v>-8.6276900331672318E-2</v>
+        <v>-7.7622130697087774E-2</v>
       </c>
       <c r="L16">
-        <v>0.2044151828731495</v>
+        <v>-0.1796444024030403</v>
       </c>
       <c r="M16">
-        <v>-0.30211266819699478</v>
+        <v>0.1381131739925929</v>
       </c>
       <c r="N16">
-        <v>3.8304819169330317E-2</v>
+        <v>-6.4963000640810523E-2</v>
       </c>
       <c r="O16">
-        <v>-8.3603247309678649E-2</v>
+        <v>-0.20968326839240151</v>
       </c>
       <c r="P16">
-        <v>0.1165073445726505</v>
+        <v>-0.19934409324835481</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C17">
-        <v>-0.1075451779868223</v>
+        <v>-1.3408179163615209E-2</v>
       </c>
       <c r="D17">
-        <v>0.1118193934794276</v>
+        <v>0.74941227022367707</v>
       </c>
       <c r="E17">
-        <v>0.13409304533347691</v>
+        <v>0.75987032075610206</v>
       </c>
       <c r="F17">
-        <v>0.13458336259666859</v>
+        <v>0.1611911586788819</v>
       </c>
       <c r="G17">
-        <v>0.35991565410081511</v>
+        <v>9.6880824210787739E-2</v>
       </c>
       <c r="H17">
-        <v>0.33393519497591539</v>
+        <v>-2.6199290618216058E-2</v>
       </c>
       <c r="I17">
-        <v>0.1175403627488429</v>
+        <v>0.74077453247123437</v>
       </c>
       <c r="J17">
-        <v>2.4009341463236241E-2</v>
+        <v>-4.0311026248848629E-2</v>
       </c>
       <c r="K17">
-        <v>-7.7622130697087774E-2</v>
+        <v>3.486015299293449E-2</v>
       </c>
       <c r="L17">
-        <v>-0.1796444024030403</v>
+        <v>-0.21699156748408549</v>
       </c>
       <c r="M17">
-        <v>0.1381131739925929</v>
+        <v>0.74239471358700404</v>
       </c>
       <c r="N17">
-        <v>-6.4963000640810523E-2</v>
+        <v>-6.294429995760295E-2</v>
       </c>
       <c r="O17">
-        <v>-0.20968326839240151</v>
+        <v>-1.381717718308271E-2</v>
       </c>
       <c r="P17">
-        <v>-0.19934409324835481</v>
+        <v>-6.5461373919184357E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C18">
-        <v>-1.3408179163615209E-2</v>
+        <v>-0.15453912588696411</v>
       </c>
       <c r="D18">
-        <v>0.74941227022367707</v>
+        <v>0.85889590047470876</v>
       </c>
       <c r="E18">
-        <v>0.75987032075610206</v>
+        <v>0.88570508536332859</v>
       </c>
       <c r="F18">
-        <v>0.1611911586788819</v>
+        <v>0.32239187594701979</v>
       </c>
       <c r="G18">
-        <v>9.6880824210787739E-2</v>
+        <v>0.21416498841834991</v>
       </c>
       <c r="H18">
-        <v>-2.6199290618216058E-2</v>
+        <v>3.7764375532144942E-2</v>
       </c>
       <c r="I18">
-        <v>0.74077453247123437</v>
+        <v>0.84993585795521653</v>
       </c>
       <c r="J18">
-        <v>-4.0311026248848629E-2</v>
+        <v>-0.13351170685793681</v>
       </c>
       <c r="K18">
-        <v>3.486015299293449E-2</v>
+        <v>-0.17440766277570649</v>
       </c>
       <c r="L18">
-        <v>-0.21699156748408549</v>
+        <v>-0.20530655545938489</v>
       </c>
       <c r="M18">
-        <v>0.74239471358700404</v>
+        <v>0.86937009209891292</v>
       </c>
       <c r="N18">
-        <v>-6.294429995760295E-2</v>
+        <v>-8.8133748317952246E-2</v>
       </c>
       <c r="O18">
-        <v>-1.381717718308271E-2</v>
+        <v>-5.998571869606989E-2</v>
       </c>
       <c r="P18">
-        <v>-6.5461373919184357E-2</v>
+        <v>1.7246283989634899E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C19">
-        <v>-0.15453912588696411</v>
+        <v>0.1031935255142433</v>
       </c>
       <c r="D19">
-        <v>0.85889590047470876</v>
+        <v>4.3153311490628357E-2</v>
       </c>
       <c r="E19">
-        <v>0.88570508536332859</v>
+        <v>-1.246484136603142E-2</v>
       </c>
       <c r="F19">
-        <v>0.32239187594701979</v>
+        <v>-0.39224645632528299</v>
       </c>
       <c r="G19">
-        <v>0.21416498841834991</v>
+        <v>-2.2652523491646821E-2</v>
       </c>
       <c r="H19">
-        <v>3.7764375532144942E-2</v>
+        <v>0.15014758126700081</v>
       </c>
       <c r="I19">
-        <v>0.84993585795521653</v>
+        <v>4.5798703589522087E-2</v>
       </c>
       <c r="J19">
-        <v>-0.13351170685793681</v>
+        <v>-0.1529189535207664</v>
       </c>
       <c r="K19">
-        <v>-0.17440766277570649</v>
+        <v>-0.13879411670241359</v>
       </c>
       <c r="L19">
-        <v>-0.20530655545938489</v>
+        <v>0.34961502374719933</v>
       </c>
       <c r="M19">
-        <v>0.86937009209891292</v>
+        <v>-5.3611364608572576E-3</v>
       </c>
       <c r="N19">
-        <v>-8.8133748317952246E-2</v>
+        <v>-1.209469974588793E-2</v>
       </c>
       <c r="O19">
-        <v>-5.998571869606989E-2</v>
+        <v>-9.980591791298063E-2</v>
       </c>
       <c r="P19">
-        <v>1.7246283989634899E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20">
-        <v>0.1031935255142433</v>
-      </c>
-      <c r="D20">
-        <v>4.3153311490628357E-2</v>
-      </c>
-      <c r="E20">
-        <v>-1.246484136603142E-2</v>
-      </c>
-      <c r="F20">
-        <v>-0.39224645632528299</v>
-      </c>
-      <c r="G20">
-        <v>-2.2652523491646821E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.15014758126700081</v>
-      </c>
-      <c r="I20">
-        <v>4.5798703589522087E-2</v>
-      </c>
-      <c r="J20">
-        <v>-0.1529189535207664</v>
-      </c>
-      <c r="K20">
-        <v>-0.13879411670241359</v>
-      </c>
-      <c r="L20">
-        <v>0.34961502374719933</v>
-      </c>
-      <c r="M20">
-        <v>-5.3611364608572576E-3</v>
-      </c>
-      <c r="N20">
-        <v>-1.209469974588793E-2</v>
-      </c>
-      <c r="O20">
-        <v>-9.980591791298063E-2</v>
-      </c>
-      <c r="P20">
         <v>-6.5156436678659516E-2</v>
       </c>
     </row>
